--- a/other/2019-12-03_Magna_N19-3001_IP.xlsx
+++ b/other/2019-12-03_Magna_N19-3001_IP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
   <si>
     <t xml:space="preserve">IP</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Network - MAGNA/BK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
   </si>
   <si>
     <t xml:space="preserve">Master PLC Siemens</t>
@@ -252,12 +255,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -267,18 +270,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="1" sqref="D11:D12 D13"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -294,6 +298,9 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -306,13 +313,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -320,13 +327,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -334,13 +341,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -348,13 +355,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -362,13 +369,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,13 +383,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -390,13 +397,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -404,13 +411,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -418,13 +425,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -432,13 +439,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,13 +453,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,7 +467,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,7 +475,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -476,13 +483,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -490,13 +497,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,13 +511,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -518,13 +525,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -537,13 +544,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,13 +558,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="D22" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -565,13 +572,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,13 +586,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,13 +600,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -607,13 +614,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,7 +628,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -629,7 +636,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,13 +644,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -651,13 +658,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="D30" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -665,13 +672,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,13 +686,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,7 +700,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,13 +708,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,13 +722,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="D35" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,13 +736,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,7 +750,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,7 +758,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,7 +766,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -767,7 +774,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,7 +782,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,7 +790,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -791,7 +798,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,7 +806,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,7 +814,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -815,7 +822,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -823,7 +830,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,7 +838,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -839,7 +846,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,7 +854,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,7 +862,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/other/2019-12-03_Magna_N19-3001_IP.xlsx
+++ b/other/2019-12-03_Magna_N19-3001_IP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="48">
   <si>
     <t xml:space="preserve">IP</t>
   </si>
@@ -79,46 +79,67 @@
     <t xml:space="preserve">Metralight sensor for glue measurement</t>
   </si>
   <si>
-    <t xml:space="preserve">Gateway metralight</t>
+    <t xml:space="preserve">192.168.2.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gateway metralight EC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.2.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metralight debug PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.2.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metralight Reserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.2.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handheld barcode reader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.2.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot - gluing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control cabinet robot 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot - manipulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control cabinet robot 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gripper Robot 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carousel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera 1 Primer detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera 2 Primer detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera 3 Primer detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera 4 Primer detection</t>
   </si>
   <si>
     <t xml:space="preserve">Reserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handheld barcode reader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On machine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robot - gluing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control cabinet robot 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robot - manipulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control cabinet robot 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gripper Robot 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carousel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camera 1 Primer detection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camera 2 Primer detection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camera 3 Primer detection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camera 4 Primer detection</t>
   </si>
   <si>
     <t xml:space="preserve">Rotary table</t>
@@ -236,7 +257,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -246,10 +267,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -272,11 +289,11 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.22"/>
@@ -430,9 +447,10 @@
       <c r="C11" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="D11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -444,8 +462,11 @@
       <c r="C12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
+      <c r="D12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -453,43 +474,55 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,10 +530,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>7</v>
@@ -511,10 +544,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>7</v>
@@ -528,7 +561,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>7</v>
@@ -547,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>7</v>
@@ -558,10 +591,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>7</v>
@@ -572,10 +605,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>7</v>
@@ -586,10 +619,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>7</v>
@@ -600,10 +633,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>7</v>
@@ -614,10 +647,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>9</v>
@@ -628,7 +661,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,7 +669,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -647,7 +680,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>7</v>
@@ -658,10 +691,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>7</v>
@@ -672,10 +705,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>9</v>
@@ -686,10 +719,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>9</v>
@@ -700,7 +733,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -708,10 +741,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>7</v>
@@ -722,10 +755,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>7</v>
@@ -736,10 +769,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>7</v>
@@ -750,7 +783,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -758,7 +791,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,7 +799,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -774,7 +807,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,7 +815,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,7 +823,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,7 +831,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -806,7 +839,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -814,7 +847,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,7 +855,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,7 +863,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,7 +871,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -846,7 +879,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,7 +887,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,7 +895,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
